--- a/RA_vs_Perfil_Metricas2.xlsx
+++ b/RA_vs_Perfil_Metricas2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Spearman_Correlation</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Euclidean_Similarity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Manhattan_Similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +498,12 @@
       <c r="F2" t="n">
         <v>0.648665270760571</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.4728234702749854</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5365644693374634</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +528,12 @@
       <c r="F3" t="n">
         <v>0.5121263690617476</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.5063082198293966</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6112977266311646</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +558,12 @@
       <c r="F4" t="n">
         <v>0.6899327337153708</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.4608095289470464</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5206574201583862</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +588,12 @@
       <c r="F5" t="n">
         <v>0.6004213149774508</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.4822646629336216</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5696368813514709</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +618,12 @@
       <c r="F6" t="n">
         <v>0.5739481960598148</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.4906025827523348</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5811412930488586</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +648,12 @@
       <c r="F7" t="n">
         <v>0.5112860703265403</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.5064895152555926</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6177548766136169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +678,12 @@
       <c r="F8" t="n">
         <v>0.5638970363839816</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.4918985697508294</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5796778798103333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +708,12 @@
       <c r="F9" t="n">
         <v>0.4424207809162117</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.5208484147282126</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6567031741142273</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +738,12 @@
       <c r="F10" t="n">
         <v>0.5028640093587875</v>
       </c>
+      <c r="G10" t="n">
+        <v>0.5021098547868631</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6101682186126709</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +768,12 @@
       <c r="F11" t="n">
         <v>0.5279947695907227</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.5016169366085684</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.610351026058197</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +798,12 @@
       <c r="F12" t="n">
         <v>0.4889156861415347</v>
       </c>
+      <c r="G12" t="n">
+        <v>0.5011864825559208</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6125873923301697</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +828,12 @@
       <c r="F13" t="n">
         <v>0.5369758994269438</v>
       </c>
+      <c r="G13" t="n">
+        <v>0.4960560840996572</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5994650721549988</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +858,12 @@
       <c r="F14" t="n">
         <v>0.5876322437353769</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.4845890701774838</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5672896504402161</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +888,12 @@
       <c r="F15" t="n">
         <v>0.3389012749652436</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.561532146021246</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.760382354259491</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +918,12 @@
       <c r="F16" t="n">
         <v>0.5796484520701231</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.4856844632301905</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5755149126052856</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +948,12 @@
       <c r="F17" t="n">
         <v>0.3753534976772575</v>
       </c>
+      <c r="G17" t="n">
+        <v>0.5418512795157306</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6933268308639526</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +978,12 @@
       <c r="F18" t="n">
         <v>0.5432186938387983</v>
       </c>
+      <c r="G18" t="n">
+        <v>0.499145272699631</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5999760627746582</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +1008,12 @@
       <c r="F19" t="n">
         <v>0.4483047794242311</v>
       </c>
+      <c r="G19" t="n">
+        <v>0.5204544625425274</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.64751797914505</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +1038,12 @@
       <c r="F20" t="n">
         <v>0.4714103455291445</v>
       </c>
+      <c r="G20" t="n">
+        <v>0.5150532086370275</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6388663053512573</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -944,6 +1068,12 @@
       <c r="F21" t="n">
         <v>0.3861088976297854</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.5444772858177842</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7135191559791565</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -969,6 +1099,12 @@
       <c r="F22" t="n">
         <v>0.4484181614729917</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.5204321830101011</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6468961238861084</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -993,6 +1129,12 @@
       <c r="F23" t="n">
         <v>0.5507356057780339</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.4927233420338789</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5916454195976257</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1017,6 +1159,12 @@
       <c r="F24" t="n">
         <v>0.4380143518361533</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.5277288083217833</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6713300347328186</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1041,6 +1189,12 @@
       <c r="F25" t="n">
         <v>0.536809111254281</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.4961676077966958</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5934117436408997</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1065,6 +1219,12 @@
       <c r="F26" t="n">
         <v>0.5005357566715269</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.5047967561035331</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6150020360946655</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1089,6 +1249,12 @@
       <c r="F27" t="n">
         <v>0.6986156793598046</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.4620404647168885</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5152772068977356</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1113,6 +1279,12 @@
       <c r="F28" t="n">
         <v>0.5600903665525075</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.4934141804180411</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5843281149864197</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1137,6 +1309,12 @@
       <c r="F29" t="n">
         <v>0.517680182089451</v>
       </c>
+      <c r="G29" t="n">
+        <v>0.5067711388535647</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.63084876537323</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1161,6 +1339,12 @@
       <c r="F30" t="n">
         <v>0.4513300668000407</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.5222467333618137</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6599862575531006</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1184,6 +1368,12 @@
       </c>
       <c r="F31" t="n">
         <v>0.6464497643348819</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4683634697165334</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5324605107307434</v>
       </c>
     </row>
   </sheetData>
